--- a/data/2024/nopi_numbers_2024.xlsx
+++ b/data/2024/nopi_numbers_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfriendly\Desktop\kgun\data\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CDE0C2-D21B-4BA2-9FC0-3498301B634E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA24C563-75AD-4CBE-A2B2-43F2916074D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="4050" windowWidth="29040" windowHeight="15720" xr2:uid="{609158DE-59C0-4FD3-85F5-4A152D8E69B2}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1318,16 +1318,16 @@
         <v>2024</v>
       </c>
       <c r="B35">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E35">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>239</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
